--- a/spec/fixtures/files/tasks.xlsx
+++ b/spec/fixtures/files/tasks.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">Finalizado</t>
   </si>
   <si>
-    <t xml:space="preserve">2267 - Mensagens de erro ou sucesso, não estã estilizadas</t>
+    <t xml:space="preserve">2267: Mensagens de erro ou sucesso, não estã estilizadas</t>
   </si>
   <si>
     <t xml:space="preserve">08:29</t>
@@ -88,7 +88,7 @@
     <t xml:space="preserve">01:53</t>
   </si>
   <si>
-    <t xml:space="preserve">2180 - Tela Solicitante - Erro no cadastro</t>
+    <t xml:space="preserve">2180: Tela Solicitante - Erro no cadastro</t>
   </si>
   <si>
     <t xml:space="preserve">10:23</t>
@@ -100,22 +100,22 @@
     <t xml:space="preserve">02:15</t>
   </si>
   <si>
+    <t xml:space="preserve">2254: Exclusão de Transferências - Erro no cadastro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:43</t>
+  </si>
+  <si>
     <t xml:space="preserve">patrimonio</t>
   </si>
   <si>
-    <t xml:space="preserve">2254 - Exclusão de Transferências - Erro no cadastro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2271 - Verificar os erros do deploy patrimonio update</t>
+    <t xml:space="preserve">2271: Verificar os erros do deploy patrimonio update</t>
   </si>
   <si>
     <t xml:space="preserve">16:44</t>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">01:39</t>
   </si>
   <si>
-    <t xml:space="preserve">2269 - Fornecedores - Erro aba Endereço</t>
+    <t xml:space="preserve">2269: Fornecedores - Erro aba Endereço</t>
   </si>
 </sst>
 </file>
@@ -246,10 +246,10 @@
   <dimension ref="A1:L133"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="48.16"/>
   </cols>
@@ -286,7 +286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -316,7 +316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -362,17 +362,17 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -380,17 +380,17 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>17</v>
@@ -400,7 +400,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -418,7 +418,7 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>17</v>
